--- a/Stagiaires/Mousa Hamza.xlsx
+++ b/Stagiaires/Mousa Hamza.xlsx
@@ -9,59 +9,20 @@
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>Tâche</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Date début</t>
   </si>
   <si>
-    <t>Réalisation du prototype</t>
-  </si>
-  <si>
-    <t>TP1_PFA</t>
-  </si>
-  <si>
-    <t>TP2_PFA</t>
-  </si>
-  <si>
-    <t>TP3_PFA</t>
-  </si>
-  <si>
-    <t>TP4_PFA</t>
-  </si>
-  <si>
-    <t>TP5_PFA</t>
-  </si>
-  <si>
-    <t>TP6_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>TP7_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>Démonstration TP5_PFA</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 1 GwinApp</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 2 GwinApp</t>
-  </si>
-  <si>
     <t>Rapport</t>
   </si>
   <si>
     <t>Rapport Version 1</t>
-  </si>
-  <si>
-    <t>Etape de modélisation</t>
   </si>
   <si>
     <t>Projet</t>
@@ -101,6 +62,117 @@
   </si>
   <si>
     <t>Date Fin</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>Code_Tâche</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>TP1_Linq</t>
+  </si>
+  <si>
+    <t>TP2_CRUD_EF_One_Classe</t>
+  </si>
+  <si>
+    <t>TP3_Migration_EF</t>
+  </si>
+  <si>
+    <t>TP4_RelationShip_EF</t>
+  </si>
+  <si>
+    <t>TP5_CRUD_EF_All_RelationShip</t>
+  </si>
+  <si>
+    <t>TP 5.1 - Insert Image with EF</t>
+  </si>
+  <si>
+    <t>TP6_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>TP7_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_Many</t>
+  </si>
+  <si>
+    <t>TP8_Gwin_All_Relation_Ship</t>
+  </si>
+  <si>
+    <t>Rapport Version 2</t>
+  </si>
+  <si>
+    <t>Update- chapitre Analyse technique, par les tâches que vous avez réaliser</t>
+  </si>
+  <si>
+    <t>Test unitaire d'une EntityBLO</t>
+  </si>
+  <si>
+    <t>Auto-Formation sur GitHub pour Fork et PulRequest ( Optionnelle)</t>
+  </si>
+  <si>
+    <t>Demonstration - Intégration avec GitHub</t>
+  </si>
+  <si>
+    <t>Caputre des besoin</t>
+  </si>
+  <si>
+    <t>Club management system</t>
+  </si>
+  <si>
+    <t>Diagramme de context</t>
+  </si>
+  <si>
+    <t>Analyse fonctionelle</t>
+  </si>
+  <si>
+    <t>Diagramme de cas d'utilisation et Arabe ou en français</t>
+  </si>
+  <si>
+    <t>Dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Traudction de dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Diagramme de classe  en Anglais</t>
+  </si>
+  <si>
+    <t>Partage des tâches - chaque tâche contient 
+- Mini Diagramme de cas d'utilisation
+- Dictionnaire de données pour chaque classe 
+- Diagramme de classes à implémenter</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
+  </si>
+  <si>
+    <t>Implémentation des classe C# avec fichiers ressources</t>
+  </si>
+  <si>
+    <t>Implémentation des classe BLO</t>
+  </si>
+  <si>
+    <t>Implémentation des Test unitaire de BLO</t>
+  </si>
+  <si>
+    <t>Validation et Intégration sur GitHub</t>
   </si>
 </sst>
 </file>
@@ -116,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -144,24 +222,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -177,17 +287,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Taches" displayName="Tableau_Taches" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau_Tâches" displayName="Tableau_Tâches" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Etape de modélisation"/>
-    <tableColumn id="2" name="Projet"/>
-    <tableColumn id="3" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="1" name="Phases" dataDxfId="5"/>
+    <tableColumn id="2" name="Projet" dataDxfId="4"/>
+    <tableColumn id="3" name="Code_Tâche" dataDxfId="3"/>
     <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Date début" dataDxfId="1"/>
-    <tableColumn id="6" name="Date Fin" dataDxfId="0"/>
+    <tableColumn id="22" name="Date début" dataDxfId="1"/>
+    <tableColumn id="23" name="Date Fin" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -478,198 +588,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>42802</v>
+      </c>
+      <c r="F2" s="5">
+        <v>41342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42793</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>42797</v>
+      </c>
+      <c r="F4" s="5">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42793</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42795</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42795</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42795</v>
-      </c>
-      <c r="F3" s="2">
-        <v>42798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>42800</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
